--- a/results/results1.xlsx
+++ b/results/results1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77AB4030-07E8-46BD-8A3C-DDD3D94235D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6325F581-F2C4-493F-8FF8-0BC4DC10E7DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>vaccine_limit</t>
   </si>
   <si>
-    <t>DRMDP Decision-dependent</t>
+    <t>DRMDP Decision-dependent 1</t>
   </si>
   <si>
     <t>xs</t>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="K225" sqref="A175:K225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -559,1709 +559,1709 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>15</v>
       </c>
+      <c r="B21">
+        <v>900</v>
+      </c>
       <c r="C21">
         <v>900</v>
       </c>
-      <c r="D21">
+      <c r="K21">
+        <f>AVERAGE(B21:C21)</f>
         <v>900</v>
       </c>
-      <c r="L21">
-        <f>AVERAGE(C21:D21)</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22">
+        <v>720</v>
+      </c>
       <c r="C22">
-        <v>720</v>
-      </c>
-      <c r="D22">
         <v>690</v>
       </c>
-      <c r="L22">
-        <f t="shared" ref="L22:L85" si="0">AVERAGE(C22:D22)</f>
+      <c r="K22">
+        <f t="shared" ref="K22:K85" si="0">AVERAGE(B22:C22)</f>
         <v>705</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:11">
+      <c r="B23">
+        <v>480</v>
+      </c>
       <c r="C23">
-        <v>480</v>
-      </c>
-      <c r="D23">
         <v>340</v>
       </c>
-      <c r="L23">
+      <c r="K23">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:11">
+      <c r="B24">
+        <v>180</v>
+      </c>
       <c r="C24">
-        <v>180</v>
-      </c>
-      <c r="D24">
         <v>120</v>
       </c>
-      <c r="L24">
+      <c r="K24">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:11">
+      <c r="B25">
+        <v>120</v>
+      </c>
       <c r="C25">
-        <v>120</v>
-      </c>
-      <c r="D25">
         <v>90</v>
       </c>
-      <c r="L25">
+      <c r="K25">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:11">
+      <c r="B26">
+        <v>100</v>
+      </c>
       <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
         <v>80</v>
       </c>
-      <c r="L26">
+      <c r="K26">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:11">
+      <c r="B27">
+        <v>90</v>
+      </c>
       <c r="C27">
+        <v>80</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28">
         <v>90</v>
       </c>
-      <c r="D27">
+      <c r="C28">
         <v>80</v>
       </c>
-      <c r="L27">
+      <c r="K28">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="C28">
+    <row r="29" spans="1:11">
+      <c r="B29">
         <v>90</v>
       </c>
-      <c r="D28">
+      <c r="C29">
         <v>80</v>
       </c>
-      <c r="L28">
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="C29">
+    <row r="30" spans="1:11">
+      <c r="B30">
         <v>90</v>
       </c>
-      <c r="D29">
+      <c r="C30">
         <v>80</v>
       </c>
-      <c r="L29">
+      <c r="K30">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="C30">
+    <row r="31" spans="1:11">
+      <c r="B31">
         <v>90</v>
       </c>
-      <c r="D30">
+      <c r="C31">
         <v>80</v>
       </c>
-      <c r="L30">
+      <c r="K31">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="C31">
+    <row r="32" spans="1:11">
+      <c r="B32">
         <v>90</v>
       </c>
-      <c r="D31">
+      <c r="C32">
         <v>80</v>
       </c>
-      <c r="L31">
+      <c r="K32">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="C32">
-        <v>90</v>
-      </c>
-      <c r="D32">
-        <v>80</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>16</v>
       </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
       <c r="C34">
         <v>100</v>
       </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35">
+        <v>180</v>
+      </c>
       <c r="C35">
-        <v>180</v>
-      </c>
-      <c r="D35">
         <v>210</v>
       </c>
-      <c r="L35">
+      <c r="K35">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:11">
+      <c r="B36">
+        <v>240</v>
+      </c>
       <c r="C36">
-        <v>240</v>
-      </c>
-      <c r="D36">
         <v>250</v>
       </c>
-      <c r="L36">
+      <c r="K36">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:11">
+      <c r="B37">
+        <v>200</v>
+      </c>
       <c r="C37">
-        <v>200</v>
-      </c>
-      <c r="D37">
         <v>120</v>
       </c>
-      <c r="L37">
+      <c r="K37">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:11">
+      <c r="B38">
+        <v>60</v>
+      </c>
       <c r="C38">
-        <v>60</v>
-      </c>
-      <c r="D38">
         <v>30</v>
       </c>
-      <c r="L38">
+      <c r="K38">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:11">
+      <c r="B39">
+        <v>20</v>
+      </c>
       <c r="C39">
-        <v>20</v>
-      </c>
-      <c r="D39">
         <v>10</v>
       </c>
-      <c r="L39">
+      <c r="K39">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:11">
+      <c r="B40">
+        <v>10</v>
+      </c>
       <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:11">
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>17</v>
       </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48">
+        <v>0</v>
+      </c>
       <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>100</v>
-      </c>
-      <c r="L48">
+        <v>100</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:11">
+      <c r="B49">
+        <v>100</v>
+      </c>
       <c r="C49">
         <v>100</v>
       </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="B50">
+        <v>0</v>
+      </c>
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="B51">
+        <v>0</v>
+      </c>
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="B52">
+        <v>0</v>
+      </c>
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="B53">
+        <v>0</v>
+      </c>
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57">
+        <v>0</v>
+      </c>
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>18</v>
       </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60">
+        <v>0</v>
+      </c>
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="B61">
+        <v>0</v>
+      </c>
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="B62">
+        <v>0</v>
+      </c>
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="B63">
+        <v>0</v>
+      </c>
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="B64">
+        <v>0</v>
+      </c>
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="B65">
+        <v>0</v>
+      </c>
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="B66">
+        <v>0</v>
+      </c>
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="B67">
+        <v>0</v>
+      </c>
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="K67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68">
+        <v>0</v>
+      </c>
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="K68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="B69">
+        <v>0</v>
+      </c>
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="K69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>15</v>
       </c>
+      <c r="B73">
+        <v>900</v>
+      </c>
       <c r="C73">
         <v>900</v>
       </c>
-      <c r="D73">
+      <c r="K73">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="L73">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+    </row>
+    <row r="74" spans="1:11">
+      <c r="B74">
+        <v>680</v>
+      </c>
       <c r="C74">
-        <v>680</v>
-      </c>
-      <c r="D74">
         <v>700</v>
       </c>
-      <c r="L74">
+      <c r="K74">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:11">
+      <c r="B75">
+        <v>330</v>
+      </c>
       <c r="C75">
-        <v>330</v>
-      </c>
-      <c r="D75">
         <v>420</v>
       </c>
-      <c r="L75">
+      <c r="K75">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:11">
+      <c r="B76">
+        <v>130</v>
+      </c>
       <c r="C76">
-        <v>130</v>
-      </c>
-      <c r="D76">
         <v>150</v>
       </c>
-      <c r="L76">
+      <c r="K76">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:11">
+      <c r="B77">
+        <v>100</v>
+      </c>
       <c r="C77">
-        <v>100</v>
-      </c>
-      <c r="D77">
         <v>90</v>
       </c>
-      <c r="L77">
+      <c r="K77">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:11">
+      <c r="B78">
+        <v>90</v>
+      </c>
       <c r="C78">
+        <v>70</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="B79">
         <v>90</v>
       </c>
-      <c r="D78">
+      <c r="C79">
         <v>70</v>
       </c>
-      <c r="L78">
+      <c r="K79">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="C79">
+    <row r="80" spans="1:11">
+      <c r="B80">
         <v>90</v>
       </c>
-      <c r="D79">
+      <c r="C80">
         <v>70</v>
       </c>
-      <c r="L79">
+      <c r="K80">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="C80">
+    <row r="81" spans="1:11">
+      <c r="B81">
         <v>90</v>
       </c>
-      <c r="D80">
+      <c r="C81">
         <v>70</v>
       </c>
-      <c r="L80">
+      <c r="K81">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="C81">
+    <row r="82" spans="1:11">
+      <c r="B82">
         <v>90</v>
       </c>
-      <c r="D81">
+      <c r="C82">
         <v>70</v>
       </c>
-      <c r="L81">
+      <c r="K82">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
-      <c r="C82">
+    <row r="83" spans="1:11">
+      <c r="B83">
         <v>90</v>
       </c>
-      <c r="D82">
+      <c r="C83">
         <v>70</v>
       </c>
-      <c r="L82">
+      <c r="K83">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
-      <c r="C83">
+    <row r="84" spans="1:11">
+      <c r="B84">
         <v>90</v>
       </c>
-      <c r="D83">
+      <c r="C84">
         <v>70</v>
       </c>
-      <c r="L83">
+      <c r="K84">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
-      <c r="C84">
-        <v>90</v>
-      </c>
-      <c r="D84">
-        <v>70</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>16</v>
       </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
       <c r="C86">
         <v>100</v>
       </c>
-      <c r="D86">
-        <v>100</v>
-      </c>
-      <c r="L86">
-        <f t="shared" ref="L86:L149" si="1">AVERAGE(C86:D86)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="K86">
+        <f t="shared" ref="K86:K149" si="1">AVERAGE(B86:C86)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="B87">
+        <v>220</v>
+      </c>
       <c r="C87">
-        <v>220</v>
-      </c>
-      <c r="D87">
         <v>200</v>
       </c>
-      <c r="L87">
+      <c r="K87">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:11">
+      <c r="B88">
+        <v>250</v>
+      </c>
       <c r="C88">
-        <v>250</v>
-      </c>
-      <c r="D88">
         <v>280</v>
       </c>
-      <c r="L88">
+      <c r="K88">
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:11">
+      <c r="B89">
+        <v>100</v>
+      </c>
       <c r="C89">
-        <v>100</v>
-      </c>
-      <c r="D89">
         <v>170</v>
       </c>
-      <c r="L89">
+      <c r="K89">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:11">
+      <c r="B90">
+        <v>30</v>
+      </c>
       <c r="C90">
-        <v>30</v>
-      </c>
-      <c r="D90">
         <v>60</v>
       </c>
-      <c r="L90">
+      <c r="K90">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:11">
+      <c r="B91">
+        <v>10</v>
+      </c>
       <c r="C91">
-        <v>10</v>
-      </c>
-      <c r="D91">
         <v>20</v>
       </c>
-      <c r="L91">
+      <c r="K91">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:11">
+      <c r="B92">
+        <v>0</v>
+      </c>
       <c r="C92">
         <v>0</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="K92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="B93">
+        <v>0</v>
+      </c>
       <c r="C93">
         <v>0</v>
       </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="K93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="B94">
+        <v>0</v>
+      </c>
       <c r="C94">
         <v>0</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="K94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="B95">
+        <v>0</v>
+      </c>
       <c r="C95">
         <v>0</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="K95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="B96">
+        <v>0</v>
+      </c>
       <c r="C96">
         <v>0</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="K96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="B97">
+        <v>0</v>
+      </c>
       <c r="C97">
         <v>0</v>
       </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="K97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>17</v>
       </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
       <c r="C99">
         <v>0</v>
       </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="K99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="B100">
+        <v>100</v>
+      </c>
       <c r="C100">
-        <v>100</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="K100">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:11">
+      <c r="B101">
+        <v>100</v>
+      </c>
       <c r="C101">
         <v>100</v>
       </c>
-      <c r="D101">
-        <v>100</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="K101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="B102">
+        <v>0</v>
+      </c>
       <c r="C102">
         <v>0</v>
       </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="K102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="B103">
+        <v>0</v>
+      </c>
       <c r="C103">
         <v>0</v>
       </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="K103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="B104">
+        <v>0</v>
+      </c>
       <c r="C104">
         <v>0</v>
       </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="L104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="K104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="B105">
+        <v>0</v>
+      </c>
       <c r="C105">
         <v>0</v>
       </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="K105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="B106">
+        <v>0</v>
+      </c>
       <c r="C106">
         <v>0</v>
       </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="K106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="B107">
+        <v>0</v>
+      </c>
       <c r="C107">
         <v>0</v>
       </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="K107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="B108">
+        <v>0</v>
+      </c>
       <c r="C108">
         <v>0</v>
       </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="L108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="K108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="B109">
+        <v>0</v>
+      </c>
       <c r="C109">
         <v>0</v>
       </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="K109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>18</v>
       </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
       <c r="C111">
         <v>0</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="K111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="B112">
+        <v>0</v>
+      </c>
       <c r="C112">
         <v>0</v>
       </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="K112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="B113">
+        <v>0</v>
+      </c>
       <c r="C113">
         <v>0</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="K113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="B114">
+        <v>0</v>
+      </c>
       <c r="C114">
         <v>0</v>
       </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="K114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="B115">
+        <v>0</v>
+      </c>
       <c r="C115">
         <v>0</v>
       </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="K115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="B116">
+        <v>0</v>
+      </c>
       <c r="C116">
         <v>0</v>
       </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="L116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="K116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="B117">
+        <v>0</v>
+      </c>
       <c r="C117">
         <v>0</v>
       </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="L117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="K117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="B118">
+        <v>0</v>
+      </c>
       <c r="C118">
         <v>0</v>
       </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="K118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="B119">
+        <v>0</v>
+      </c>
       <c r="C119">
         <v>0</v>
       </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="K119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="B120">
+        <v>0</v>
+      </c>
       <c r="C120">
         <v>0</v>
       </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="K120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="B121">
+        <v>0</v>
+      </c>
       <c r="C121">
         <v>0</v>
       </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="K121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>15</v>
       </c>
+      <c r="B125">
+        <v>900</v>
+      </c>
       <c r="C125">
         <v>900</v>
       </c>
-      <c r="D125">
+      <c r="K125">
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="L125">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+    </row>
+    <row r="126" spans="1:11">
+      <c r="B126">
+        <v>690</v>
+      </c>
       <c r="C126">
-        <v>690</v>
-      </c>
-      <c r="D126">
         <v>710</v>
       </c>
-      <c r="L126">
+      <c r="K126">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:11">
+      <c r="B127">
+        <v>350</v>
+      </c>
       <c r="C127">
-        <v>350</v>
-      </c>
-      <c r="D127">
         <v>450</v>
       </c>
-      <c r="L127">
+      <c r="K127">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:11">
+      <c r="B128">
+        <v>140</v>
+      </c>
       <c r="C128">
+        <v>200</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="B129">
+        <v>100</v>
+      </c>
+      <c r="C129">
         <v>140</v>
       </c>
-      <c r="D128">
-        <v>200</v>
-      </c>
-      <c r="L128">
-        <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="C129">
-        <v>100</v>
-      </c>
-      <c r="D129">
-        <v>140</v>
-      </c>
-      <c r="L129">
+      <c r="K129">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:11">
+      <c r="B130">
+        <v>90</v>
+      </c>
       <c r="C130">
+        <v>130</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="B131">
         <v>90</v>
       </c>
-      <c r="D130">
+      <c r="C131">
         <v>130</v>
       </c>
-      <c r="L130">
+      <c r="K131">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
-      <c r="C131">
+    <row r="132" spans="1:11">
+      <c r="B132">
         <v>90</v>
       </c>
-      <c r="D131">
+      <c r="C132">
         <v>130</v>
       </c>
-      <c r="L131">
+      <c r="K132">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
-      <c r="C132">
+    <row r="133" spans="1:11">
+      <c r="B133">
         <v>90</v>
       </c>
-      <c r="D132">
+      <c r="C133">
         <v>130</v>
       </c>
-      <c r="L132">
+      <c r="K133">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
-      <c r="C133">
+    <row r="134" spans="1:11">
+      <c r="B134">
         <v>90</v>
       </c>
-      <c r="D133">
+      <c r="C134">
         <v>130</v>
       </c>
-      <c r="L133">
+      <c r="K134">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
-      <c r="C134">
+    <row r="135" spans="1:11">
+      <c r="B135">
         <v>90</v>
       </c>
-      <c r="D134">
+      <c r="C135">
         <v>130</v>
       </c>
-      <c r="L134">
+      <c r="K135">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
-      <c r="C135">
+    <row r="136" spans="1:11">
+      <c r="B136">
         <v>90</v>
       </c>
-      <c r="D135">
+      <c r="C136">
         <v>130</v>
       </c>
-      <c r="L135">
+      <c r="K136">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
-      <c r="C136">
-        <v>90</v>
-      </c>
-      <c r="D136">
-        <v>130</v>
-      </c>
-      <c r="L136">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>16</v>
       </c>
+      <c r="B138">
+        <v>100</v>
+      </c>
       <c r="C138">
         <v>100</v>
       </c>
-      <c r="D138">
-        <v>100</v>
-      </c>
-      <c r="L138">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="K138">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="B139">
+        <v>210</v>
+      </c>
       <c r="C139">
-        <v>210</v>
-      </c>
-      <c r="D139">
         <v>190</v>
       </c>
-      <c r="L139">
+      <c r="K139">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:11">
+      <c r="B140">
+        <v>240</v>
+      </c>
       <c r="C140">
-        <v>240</v>
-      </c>
-      <c r="D140">
         <v>260</v>
       </c>
-      <c r="L140">
+      <c r="K140">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:11">
+      <c r="B141">
+        <v>110</v>
+      </c>
       <c r="C141">
-        <v>110</v>
-      </c>
-      <c r="D141">
         <v>150</v>
       </c>
-      <c r="L141">
+      <c r="K141">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:11">
+      <c r="B142">
+        <v>40</v>
+      </c>
       <c r="C142">
-        <v>40</v>
-      </c>
-      <c r="D142">
         <v>60</v>
       </c>
-      <c r="L142">
+      <c r="K142">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:11">
+      <c r="B143">
+        <v>10</v>
+      </c>
       <c r="C143">
         <v>10</v>
       </c>
-      <c r="D143">
+      <c r="K143">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L143">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+    </row>
+    <row r="144" spans="1:11">
+      <c r="B144">
+        <v>0</v>
+      </c>
       <c r="C144">
         <v>0</v>
       </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+      <c r="K144">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="B145">
+        <v>0</v>
+      </c>
       <c r="C145">
         <v>0</v>
       </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+      <c r="K145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="B146">
+        <v>0</v>
+      </c>
       <c r="C146">
         <v>0</v>
       </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="K146">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="B147">
+        <v>0</v>
+      </c>
       <c r="C147">
         <v>0</v>
       </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="K147">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="B148">
+        <v>0</v>
+      </c>
       <c r="C148">
         <v>0</v>
       </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="K148">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="B149">
+        <v>0</v>
+      </c>
       <c r="C149">
         <v>0</v>
       </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
+      <c r="K149">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>17</v>
       </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
       <c r="C151">
         <v>0</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <f t="shared" ref="L150:L173" si="2">AVERAGE(C151:D151)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+      <c r="K151">
+        <f t="shared" ref="K150:K173" si="2">AVERAGE(B151:C151)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="B152">
+        <v>100</v>
+      </c>
       <c r="C152">
-        <v>100</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="K152">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:11">
+      <c r="B153">
+        <v>100</v>
+      </c>
       <c r="C153">
         <v>100</v>
       </c>
-      <c r="D153">
-        <v>100</v>
-      </c>
-      <c r="L153">
+      <c r="K153">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:11">
+      <c r="B154">
+        <v>0</v>
+      </c>
       <c r="C154">
         <v>0</v>
       </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="L154">
+      <c r="K154">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:11">
+      <c r="B155">
+        <v>0</v>
+      </c>
       <c r="C155">
         <v>0</v>
       </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="L155">
+      <c r="K155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:11">
+      <c r="B156">
+        <v>0</v>
+      </c>
       <c r="C156">
         <v>0</v>
       </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="L156">
+      <c r="K156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:11">
+      <c r="B157">
+        <v>0</v>
+      </c>
       <c r="C157">
         <v>0</v>
       </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="L157">
+      <c r="K157">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:11">
+      <c r="B158">
+        <v>0</v>
+      </c>
       <c r="C158">
         <v>0</v>
       </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="L158">
+      <c r="K158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:11">
+      <c r="B159">
+        <v>0</v>
+      </c>
       <c r="C159">
         <v>0</v>
       </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="L159">
+      <c r="K159">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:11">
+      <c r="B160">
+        <v>0</v>
+      </c>
       <c r="C160">
         <v>0</v>
       </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="L160">
+      <c r="K160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:11">
+      <c r="B161">
+        <v>0</v>
+      </c>
       <c r="C161">
         <v>0</v>
       </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="L161">
+      <c r="K161">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>18</v>
       </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
       <c r="C163">
         <v>0</v>
       </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="L163">
+      <c r="K163">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:11">
+      <c r="B164">
+        <v>0</v>
+      </c>
       <c r="C164">
         <v>0</v>
       </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="L164">
+      <c r="K164">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:11">
+      <c r="B165">
+        <v>0</v>
+      </c>
       <c r="C165">
         <v>0</v>
       </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="L165">
+      <c r="K165">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:11">
+      <c r="B166">
+        <v>0</v>
+      </c>
       <c r="C166">
         <v>0</v>
       </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="L166">
+      <c r="K166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:11">
+      <c r="B167">
+        <v>0</v>
+      </c>
       <c r="C167">
         <v>0</v>
       </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="L167">
+      <c r="K167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:11">
+      <c r="B168">
+        <v>0</v>
+      </c>
       <c r="C168">
         <v>0</v>
       </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="L168">
+      <c r="K168">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:11">
+      <c r="B169">
+        <v>0</v>
+      </c>
       <c r="C169">
         <v>0</v>
       </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="L169">
+      <c r="K169">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:11">
+      <c r="B170">
+        <v>0</v>
+      </c>
       <c r="C170">
         <v>0</v>
       </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="L170">
+      <c r="K170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:11">
+      <c r="B171">
+        <v>0</v>
+      </c>
       <c r="C171">
         <v>0</v>
       </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="L171">
+      <c r="K171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:11">
+      <c r="B172">
+        <v>0</v>
+      </c>
       <c r="C172">
         <v>0</v>
       </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="L172">
+      <c r="K172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:11">
+      <c r="B173">
+        <v>0</v>
+      </c>
       <c r="C173">
         <v>0</v>
       </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="L173">
+      <c r="K173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/results/results1.xlsx
+++ b/results/results1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6325F581-F2C4-493F-8FF8-0BC4DC10E7DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="698" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9C9B5C2-861C-47E8-97D1-4AF7C13BEEAF}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>T</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>vaccine_limit</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
   <si>
     <t>DRMDP Decision-dependent 1</t>
@@ -441,13 +444,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="K225" sqref="A175:K225"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -463,7 +466,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -471,7 +474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -479,7 +482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -487,7 +490,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -495,31 +498,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f>C9*C17</f>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f>C10*C17</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f>C11*C17</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -527,15 +542,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <f>C13*C17</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -543,7 +562,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -551,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -559,14 +578,22 @@
         <v>100</v>
       </c>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>50000</v>
+      </c>
+    </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>900</v>
@@ -713,7 +740,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -860,7 +887,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -995,7 +1022,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1130,12 +1157,12 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73">
         <v>900</v>
@@ -1282,7 +1309,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B86">
         <v>100</v>
@@ -1429,7 +1456,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1564,7 +1591,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -1699,12 +1726,12 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B125">
         <v>900</v>
@@ -1851,7 +1878,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B138">
         <v>100</v>
@@ -1998,7 +2025,7 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2133,7 +2160,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B163">
         <v>0</v>
